--- a/1.업무/2. 출장 관리 지도 프로그램/map_data.xlsx
+++ b/1.업무/2. 출장 관리 지도 프로그램/map_data.xlsx
@@ -3848,11 +3848,7 @@
       <c r="F117" t="n">
         <v>126.8140729</v>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4055,11 +4051,7 @@
       <c r="F124" t="n">
         <v>127.1011306</v>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4701,11 +4693,7 @@
       <c r="F146" t="n">
         <v>126.8110543</v>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
